--- a/LOGS/2f3931a1-9ead-4a4f-bd4c-899c3365c954/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/2f3931a1-9ead-4a4f-bd4c-899c3365c954/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="111">
   <si>
     <t>line_item_0</t>
   </si>
@@ -156,6 +156,48 @@
     <t>Balance 31-Mar 2023</t>
   </si>
   <si>
+    <t>Current year</t>
+  </si>
+  <si>
+    <t>Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Total income tax expense in profit or loss</t>
+  </si>
+  <si>
+    <t>Profit before tax</t>
+  </si>
+  <si>
+    <t>Income tax using the company tax rate 28% (2022: 28%)</t>
+  </si>
+  <si>
+    <t>Tax effect of Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Prior period adjustments</t>
+  </si>
+  <si>
+    <t>Impact of removal of tax depreciation on buildings</t>
+  </si>
+  <si>
+    <t>Current tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax expense</t>
+  </si>
+  <si>
+    <t>Reconciliation of tax expense and accounting profit</t>
+  </si>
+  <si>
+    <t>Impact of tax rate change</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>header_col_1</t>
   </si>
   <si>
@@ -171,9 +213,6 @@
     <t>combination</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>1-Apr</t>
   </si>
   <si>
@@ -199,9 +238,6 @@
   </si>
   <si>
     <t>Gross carrying amount</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
   <si>
     <t>Merchandise</t>
@@ -2172,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2189,13 +2225,13 @@
         <v>-632</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>2021</v>
@@ -2209,13 +2245,13 @@
         <v>516</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>2021</v>
@@ -2229,13 +2265,13 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>2021</v>
@@ -2249,13 +2285,13 @@
         <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>2021</v>
@@ -2269,13 +2305,13 @@
         <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>2021</v>
@@ -2289,13 +2325,13 @@
         <v>5167</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>2021</v>
@@ -2303,19 +2339,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>2021</v>
@@ -2329,13 +2365,13 @@
         <v>6084</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>2021</v>
@@ -2463,7 +2499,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>-14</v>
@@ -2509,13 +2545,13 @@
         <v>-2672</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G18">
         <v>2022</v>
@@ -2529,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G19">
         <v>2022</v>
@@ -2549,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <v>2022</v>
@@ -2569,13 +2605,13 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G21">
         <v>2022</v>
@@ -2589,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G22">
         <v>2022</v>
@@ -2609,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>2022</v>
@@ -2623,19 +2659,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>2022</v>
@@ -2649,13 +2685,13 @@
         <v>-2588</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2022</v>
@@ -2669,13 +2705,13 @@
         <v>-3032</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G26">
         <v>2022</v>
@@ -2689,13 +2725,13 @@
         <v>437</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <v>2022</v>
@@ -2709,13 +2745,13 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G28">
         <v>2022</v>
@@ -2729,13 +2765,13 @@
         <v>969</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G29">
         <v>2022</v>
@@ -2749,13 +2785,13 @@
         <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G30">
         <v>2022</v>
@@ -2769,13 +2805,13 @@
         <v>4450</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G31">
         <v>2022</v>
@@ -2783,19 +2819,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G32">
         <v>2022</v>
@@ -2809,13 +2845,13 @@
         <v>3125</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G33">
         <v>2022</v>
@@ -2853,16 +2889,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>2588</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -2870,16 +2906,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -2887,16 +2923,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2588</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -2904,16 +2940,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -2921,16 +2957,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>2588</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -2938,16 +2974,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2588</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -2985,13 +3021,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>84497</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -2999,13 +3035,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2641</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3019,7 +3055,7 @@
         <v>87138</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3027,13 +3063,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>58187</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -3041,13 +3077,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>3526</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -3061,7 +3097,7 @@
         <v>61713</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3117,13 +3153,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3131,13 +3167,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>14456</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3145,13 +3181,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>-462</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3165,7 +3201,7 @@
         <v>14242</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -3173,13 +3209,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>-20</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -3187,13 +3223,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>11726</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3201,13 +3237,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>-458</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3221,7 +3257,7 @@
         <v>11248</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -3259,16 +3295,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3276,16 +3312,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>1262</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3293,16 +3329,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>1205</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3310,16 +3346,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>686</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -3330,13 +3366,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>3215</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -3344,16 +3380,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>1792</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3361,16 +3397,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>320</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3378,16 +3414,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -3395,16 +3431,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>422</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>2022</v>
@@ -3415,13 +3451,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>2857</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>2022</v>
@@ -3459,16 +3495,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3479,13 +3515,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3493,16 +3529,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -3513,13 +3549,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -3561,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3578,16 +3614,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>87831</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -3595,19 +3631,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -3615,16 +3651,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>87831</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -3632,16 +3668,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>17722</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -3649,16 +3685,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>17722</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>2023</v>
@@ -3666,16 +3702,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>105553</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>2023</v>
@@ -3683,16 +3719,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>20333</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -3700,19 +3736,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>30000</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -3720,16 +3756,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>50333</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>2022</v>
@@ -3737,16 +3773,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>22553</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>2022</v>
@@ -3754,16 +3790,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>22553</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>2022</v>
@@ -3771,16 +3807,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>72886</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>2022</v>
@@ -3818,16 +3854,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>8523</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3838,13 +3874,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>8523</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3852,16 +3888,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>10495</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -3872,13 +3908,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>10495</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -4329,7 +4365,7 @@
         <v>2207</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -4337,7 +4373,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -4346,7 +4382,7 @@
         <v>1924</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -4354,7 +4390,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -4363,7 +4399,7 @@
         <v>-1390</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -4371,7 +4407,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -4380,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -4388,7 +4424,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -4397,7 +4433,7 @@
         <v>2741</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -4414,7 +4450,7 @@
         <v>2628</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -4422,7 +4458,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -4431,7 +4467,7 @@
         <v>2109</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -4439,7 +4475,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -4448,7 +4484,7 @@
         <v>-1675</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>2023</v>
@@ -4456,7 +4492,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -4465,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -4473,7 +4509,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -4482,7 +4518,7 @@
         <v>3062</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -4507,7 +4543,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -4524,7 +4560,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -4541,7 +4577,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -4558,7 +4594,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -4592,7 +4628,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -4609,7 +4645,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -4626,7 +4662,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -4643,7 +4679,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -4687,7 +4723,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -4696,7 +4732,7 @@
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4710,12 +4746,12 @@
         <v>2022</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -4724,7 +4760,7 @@
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4738,12 +4774,12 @@
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -4752,12 +4788,12 @@
         <v>2023</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -4766,12 +4802,12 @@
         <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -4780,7 +4816,7 @@
         <v>7849</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4794,12 +4830,12 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -4808,7 +4844,7 @@
         <v>77584</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4822,12 +4858,12 @@
         <v>60838</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -4836,12 +4872,12 @@
         <v>9655</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -4850,12 +4886,12 @@
         <v>715</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -4864,7 +4900,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4878,12 +4914,12 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -4892,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4906,12 +4942,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -4920,12 +4956,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -4934,12 +4970,12 @@
         <v>-23</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -4948,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4962,12 +4998,12 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -4976,7 +5012,7 @@
         <v>25561</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4990,12 +5026,12 @@
         <v>29551</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -5004,12 +5040,12 @@
         <v>1146</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -5018,12 +5054,12 @@
         <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -5032,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5046,12 +5082,12 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -5060,7 +5096,7 @@
         <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5074,12 +5110,12 @@
         <v>-35</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -5088,12 +5124,12 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -5102,12 +5138,12 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -5116,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5130,12 +5166,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -5144,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5158,12 +5194,12 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -5172,12 +5208,12 @@
         <v>2046</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -5186,12 +5222,12 @@
         <v>1304</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -5200,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5214,12 +5250,12 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -5228,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5242,12 +5278,12 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -5256,12 +5292,12 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -5270,7 +5306,7 @@
         <v>293</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5323,16 +5359,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>1998</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -5340,16 +5376,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -5360,13 +5396,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>2225</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -5374,16 +5410,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>1630</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -5391,16 +5427,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -5411,13 +5447,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>1772</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -5455,16 +5491,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>3221</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -5472,16 +5508,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -5492,13 +5528,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>3369</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -5506,16 +5542,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>2915</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -5523,16 +5559,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -5543,13 +5579,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>3053</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -6540,12 +6576,336 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>2176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>2305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>5580</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>1562</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>711</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>2305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>929</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>371</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>1300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>1287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>804</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1300</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>